--- a/Resources/HR_Attrition_DB.xlsx
+++ b/Resources/HR_Attrition_DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Visualization_and_Analytics_Boot_Camp\Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ron\Documents\GitHub\Group6_Final_Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2274FDE8-3E7C-4385-8469-C3307707B0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048C26EE-B3EB-4A79-87A1-C76AD46BB66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="195" windowWidth="19530" windowHeight="15105" xr2:uid="{A0EF127B-3DE2-4BF3-98B1-FFFAF6515198}"/>
+    <workbookView xWindow="2730" yWindow="1095" windowWidth="13785" windowHeight="15105" xr2:uid="{A0EF127B-3DE2-4BF3-98B1-FFFAF6515198}"/>
   </bookViews>
   <sheets>
     <sheet name="HR_ATTRITION" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="51">
   <si>
     <t>Age</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>Gender_FK</t>
+  </si>
+  <si>
+    <t>NumberProjects</t>
+  </si>
+  <si>
+    <t>WorkplaceAccident</t>
   </si>
 </sst>
 </file>
@@ -571,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE86594-9713-485E-8C75-4E1C075B10DE}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,6 +976,22 @@
         <v>34</v>
       </c>
       <c r="B42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
         <v>38</v>
       </c>
     </row>
